--- a/5 改版后自动化网页提交/5.4/detail 全.xlsx
+++ b/5 改版后自动化网页提交/5.4/detail 全.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -2009,7 +2009,7 @@
   <dimension ref="A1:R98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2017,6 +2017,7 @@
     <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
     <col min="14" max="14" width="15.5546875" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" customWidth="1"/>
   </cols>
